--- a/biology/Botanique/Rafle_de_maïs/Rafle_de_maïs.xlsx
+++ b/biology/Botanique/Rafle_de_maïs/Rafle_de_maïs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rafle_de_ma%C3%AFs</t>
+          <t>Rafle_de_maïs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La rafle de maïs est le rachis (axe) de l'épi de maïs (Zea mays ssp. mays), inflorescence femelle du maïs sur lequel sont implantés les épillets femelles qui se transforment en grains lors de la maturation de la plante.
 Encore tendres, les jeunes épis peuvent être consommés entièrement, mais au fur et à mesure que la plante mûrit la rafle devient plus dure jusqu'à ce que les grains deviennent la partie principalement comestible.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rafle_de_ma%C3%AFs</t>
+          <t>Rafle_de_maïs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,18 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rafles de maïs ont diverses applications, dont :
-Source industrielle de furfural[1].
+Source industrielle de furfural.
 Fourrage pour les ruminants d'élevage (malgré une faible valeur nutritive).
 L'eau dans laquelle on a fait bouillir des rafles de maïs contient des épaississants et peut être ajoutée à du potage ou transformée en gelée de maïs sucrée traditionnelle.
-Litière pour animaux - les rafles absorbent l'humidité et fournissent une surface adaptée[2].
+Litière pour animaux - les rafles absorbent l'humidité et fournissent une surface adaptée.
 Abrasif doux, lorsqu'elle est grossièrement broyée, pour nettoyer les surfaces dans le bâtiment.
-Matière première pour les têtes de pipe en maïs[3].
-Biocombustible[4].
+Matière première pour les têtes de pipe en maïs.
+Biocombustible.
 Production de charbon de bois.
 			Pipe en maïs.
 </t>
